--- a/Windows/Busquedas/Barriers/Hymenoptera/Hymenoptera_Barriers.xlsx
+++ b/Windows/Busquedas/Barriers/Hymenoptera/Hymenoptera_Barriers.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\GitHub\Interespecific_hybrids\Windows\Busquedas\Barriers\Hymenoptera\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Barriers" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Interesting" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Strains2Species" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Barriers" sheetId="2" r:id="rId2"/>
+    <sheet name="Interesting" sheetId="3" r:id="rId3"/>
+    <sheet name="Strains2Species" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Barriers!$A$1:$H$439</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Barriers!$A$1:$H$439</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,350 +32,347 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="112">
   <si>
-    <t xml:space="preserve">Barrier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choice-Mating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A choice mating is considered either when choice matings experiments are done and heterospecific crosses develop or when hybridisation is known to happen in nature, e. g. hybrid zone development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hybrid-Egg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mating results in hybrid egg production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hybrid-Adult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hybrid eggs survive and develop into adults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One-Sex-Fertile-Hybrids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only one of the hybrid sex is fertile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fertile-Hybrids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is reported both hybrid sexes to be fertile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If in any part of the article, it is reported the esxistance of natural hybrids or hybrid zones, barriers are automatically assumed to allow gene flow until the formation of adult hybrids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTE2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revised articles were read in detail looking for the level of isolation between species-pairs. Even if barriers were described in the introduction / methods and cited from another paper data was recorded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hymenptera includes several spp with haplodiploid strategies, i. e., unfertilized eggs become males. Thus, in these spp hybrid are always females. Two sex hybrid fertility is not aplicable in this group.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sp1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sp2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Article</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trichogramma kaykai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trichogramma deion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laboratory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeong, G; Stouthamer, R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Influence of postzygotic reproductive isolation on the interspecific transmission of the paternal sex ratio chromosome in Trichogramma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autcome dependant on Wolbachia infection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lariophagus distinguendus DB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lariophagus distinguendus GW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koenig, K; Zundel, P; Krimmer, E; Koenig, C; Pollmann, M; Gottlieb, Y; Steidle, JLM.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reproductive isolation due to prezygotic isolation and postzygotic cytoplasmic incompatibility in parasitoid wasps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study on two wasp linages of the same species. Authors concluded via their RI that these linages must be independant cryptic spp. COI distance estimated by authors = 0.138 ~ 0.141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encarsia gennaroi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encarsia suzannae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gebiola, M; Kelly, SE; Hammerstein, P; Giorgini, M; Hunter, MS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darwin's corollary and cytoplasmic incompatibility induced by Cardinium may contribute to speciation in Encarsia wasps (Hymenoptera: Aphelinidae)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RI dependant on Cardinium endosimbiont presence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nasonia giraulti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nasonia vitripennis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mair, MM; Kmezic, V; Huber, S; Pannebakker, BA; Ruther, J.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The chemical basis of mate recognition in two parasitoid wasp species of the genus Nasonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytoplasmic incompatibilities due to Wolbachia, i. e. hybridisation is possible in Wolbachia free samples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nasonia longicornis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beukeboom, LW; van den Assem, J.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Courtship and mating behaviour of interspecific Nasonia hybrids (Hymenoptera, Pteromalidae): A grandfather effect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velthuis, BJ; Yang, WC; van Opijnen, T; Werren, JH. 2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genetics of female mate discrimination of heterospecific males in Nasonia (Hymenoptera, Pteromalidae)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strains may be more or less susceptible for heterospecific matings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camponotus herculeanus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camponotus ligniperda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seifert, B.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hybridization in the European carpenter ants Camponotus herculeanus and C. ligniperda (Hymenoptera: Formicidae)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Athalia rosae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Athalia infumata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAWA, M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERTILIZATION OF HETERO-SPECIFIC INSECT EGGS BY SPERM INJECTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trissolcus plautiae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trissolcus japonicus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matsuo, K; Hirose, Y; Johnson, NF.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A taxonomic issue of two species of Trissolcus (Hymenoptera: Platygastridae) parasitic on eggs of the brown-winged green bug, Plautia stali (Hemiptera: Pentatomidae): resurrection of T.plautiae, a cryptic species of T.japonicus revealed by morphology, reproductive isolation and molecular evidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aphidius microlophii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aphidius eadyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atanassova, P; Brookes, CP; Loxdale, HD; Powell, W.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electrophoretic study of five aphid parasitoid species of the genus Aphidius (Hymenoptera : Braconidae), including evidence for reproductively isolated sympatric populations and a cryptic species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonatocerus morrilli - CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonatocerus morrilli - TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de Leon, JH; Jones, WA; Samou, M; Morgan, DJW.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genetic and hybridization evidence confirms that a geographic population of Gonatocerus morrilli (Hymenoptera : Mymaridae) from California is a new species: Egg parasitoids of the glassy-winged sharpshooter Homalodisca coagulata (Homoptera : Cicadellidae)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COI distance estimated by authors = 5.4–6.5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neodiprion pinetum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neodiprion lecontei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bendall, EE; Vertacnik, KL; Linnen, CR.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oviposition traits generate extrinsic postzygotic isolation between two pine sawfly species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encarsia inaron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encarsia partenopea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gebiola, M; White, JA; Cass, BN; Kozuch, A; Harris, LR; Kelly, SE; Karimi, J; Giorgini, M; Perlman, SJ; Hunter, MS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cryptic diversity, reproductive isolation and cytoplasmic incompatibility in a classic biological control success story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COI distance estimated by authors = 3.6 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pogonomyrmex rugosus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pogonomyrmex hybrid linages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schwander, T; Suni, SS; Cahan, SH; Keller, L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mechanisms of reproductive isolation between an ant species of hybrid origin and one of its parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hybrid linages represent two hybrid species formed by hybrid speciation of the sp1 with another sp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myrmica rubra host</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myrmica rubra inquiline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leppanen, J; Seppa, P; Vepsalainen, K; Savolainen, R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mating isolation between the ant Myrmica rubra and its microgynous social parasite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polistes fuscatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polistes metricus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miller, SE; Legan, AW; Flores, ZA; Ng, HY; Sheehan, MJ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strong, but incomplete, mate choice discrimination between two closely related species of paper wasp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plutella xylostella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plutella australiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perry, KD; Baker, GJ; Powis, KJ; Kent, JK; Ward, CM; Baxter, SW.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cryptic Plutella species show deep divergence despite the capacity to hybridize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apis  cerana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apis mellifera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remnant, EJ; Koetz, A; Tan, K; Hinson, E; Beekman, M; Oldroyd, BP.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reproductive interference between honeybee species in artificial sympatry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supercolonies of billions in an invasive ant: What is a society?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Parasitic Wasp, Cotesia congregata (Say), Consists of Two Incipient Species Isolated by Asymmetric Reproductive Incompatibility and Hybrid Inability to Overcome Host Defenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ongoing ecological speciation in Cotesia sesamiae, a biological control agent of cereal stem borers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Diachasmimorpha longicaudata complex: Reproductive isolation and geometric patterns of the wing</t>
+    <t>Barrier</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Choice-Mating</t>
+  </si>
+  <si>
+    <t>A choice mating is considered either when choice matings experiments are done and heterospecific crosses develop or when hybridisation is known to happen in nature, e. g. hybrid zone development</t>
+  </si>
+  <si>
+    <t>Hybrid-Egg</t>
+  </si>
+  <si>
+    <t>Mating results in hybrid egg production</t>
+  </si>
+  <si>
+    <t>Hybrid-Adult</t>
+  </si>
+  <si>
+    <t>Hybrid eggs survive and develop into adults</t>
+  </si>
+  <si>
+    <t>One-Sex-Fertile-Hybrids</t>
+  </si>
+  <si>
+    <t>Only one of the hybrid sex is fertile</t>
+  </si>
+  <si>
+    <t>Fertile-Hybrids</t>
+  </si>
+  <si>
+    <t>It is reported both hybrid sexes to be fertile</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>If in any part of the article, it is reported the esxistance of natural hybrids or hybrid zones, barriers are automatically assumed to allow gene flow until the formation of adult hybrids</t>
+  </si>
+  <si>
+    <t>NOTE2</t>
+  </si>
+  <si>
+    <t>Revised articles were read in detail looking for the level of isolation between species-pairs. Even if barriers were described in the introduction / methods and cited from another paper data was recorded</t>
+  </si>
+  <si>
+    <t>NOTE3</t>
+  </si>
+  <si>
+    <t>Hymenptera includes several spp with haplodiploid strategies, i. e., unfertilized eggs become males. Thus, in these spp hybrid are always females. Two sex hybrid fertility is not aplicable in this group.</t>
+  </si>
+  <si>
+    <t>Sp1</t>
+  </si>
+  <si>
+    <t>Sp2</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Trichogramma kaykai</t>
+  </si>
+  <si>
+    <t>Trichogramma deion</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Jeong, G; Stouthamer, R.</t>
+  </si>
+  <si>
+    <t>Influence of postzygotic reproductive isolation on the interspecific transmission of the paternal sex ratio chromosome in Trichogramma</t>
+  </si>
+  <si>
+    <t>Autcome dependant on Wolbachia infection</t>
+  </si>
+  <si>
+    <t>Lariophagus distinguendus DB</t>
+  </si>
+  <si>
+    <t>Lariophagus distinguendus GW</t>
+  </si>
+  <si>
+    <t>Koenig, K; Zundel, P; Krimmer, E; Koenig, C; Pollmann, M; Gottlieb, Y; Steidle, JLM.</t>
+  </si>
+  <si>
+    <t>Reproductive isolation due to prezygotic isolation and postzygotic cytoplasmic incompatibility in parasitoid wasps</t>
+  </si>
+  <si>
+    <t>Study on two wasp linages of the same species. Authors concluded via their RI that these linages must be independant cryptic spp. COI distance estimated by authors = 0.138 ~ 0.141</t>
+  </si>
+  <si>
+    <t>Encarsia gennaroi</t>
+  </si>
+  <si>
+    <t>Encarsia suzannae</t>
+  </si>
+  <si>
+    <t>Gebiola, M; Kelly, SE; Hammerstein, P; Giorgini, M; Hunter, MS.</t>
+  </si>
+  <si>
+    <t>Darwin's corollary and cytoplasmic incompatibility induced by Cardinium may contribute to speciation in Encarsia wasps (Hymenoptera: Aphelinidae)</t>
+  </si>
+  <si>
+    <t>RI dependant on Cardinium endosimbiont presence</t>
+  </si>
+  <si>
+    <t>Nasonia giraulti</t>
+  </si>
+  <si>
+    <t>Nasonia vitripennis</t>
+  </si>
+  <si>
+    <t>Mair, MM; Kmezic, V; Huber, S; Pannebakker, BA; Ruther, J.</t>
+  </si>
+  <si>
+    <t>The chemical basis of mate recognition in two parasitoid wasp species of the genus Nasonia</t>
+  </si>
+  <si>
+    <t>Cytoplasmic incompatibilities due to Wolbachia, i. e. hybridisation is possible in Wolbachia free samples</t>
+  </si>
+  <si>
+    <t>Nasonia longicornis</t>
+  </si>
+  <si>
+    <t>Beukeboom, LW; van den Assem, J.</t>
+  </si>
+  <si>
+    <t>Courtship and mating behaviour of interspecific Nasonia hybrids (Hymenoptera, Pteromalidae): A grandfather effect</t>
+  </si>
+  <si>
+    <t>Velthuis, BJ; Yang, WC; van Opijnen, T; Werren, JH. 2005</t>
+  </si>
+  <si>
+    <t>Genetics of female mate discrimination of heterospecific males in Nasonia (Hymenoptera, Pteromalidae)</t>
+  </si>
+  <si>
+    <t>Strains may be more or less susceptible for heterospecific matings</t>
+  </si>
+  <si>
+    <t>Camponotus herculeanus</t>
+  </si>
+  <si>
+    <t>Camponotus ligniperda</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Seifert, B.</t>
+  </si>
+  <si>
+    <t>Hybridization in the European carpenter ants Camponotus herculeanus and C. ligniperda (Hymenoptera: Formicidae)</t>
+  </si>
+  <si>
+    <t>Athalia rosae</t>
+  </si>
+  <si>
+    <t>Athalia infumata</t>
+  </si>
+  <si>
+    <t>SAWA, M.</t>
+  </si>
+  <si>
+    <t>FERTILIZATION OF HETERO-SPECIFIC INSECT EGGS BY SPERM INJECTION</t>
+  </si>
+  <si>
+    <t>Trissolcus plautiae</t>
+  </si>
+  <si>
+    <t>Trissolcus japonicus</t>
+  </si>
+  <si>
+    <t>Matsuo, K; Hirose, Y; Johnson, NF.</t>
+  </si>
+  <si>
+    <t>A taxonomic issue of two species of Trissolcus (Hymenoptera: Platygastridae) parasitic on eggs of the brown-winged green bug, Plautia stali (Hemiptera: Pentatomidae): resurrection of T.plautiae, a cryptic species of T.japonicus revealed by morphology, reproductive isolation and molecular evidence</t>
+  </si>
+  <si>
+    <t>Aphidius microlophii</t>
+  </si>
+  <si>
+    <t>Aphidius eadyi</t>
+  </si>
+  <si>
+    <t>Atanassova, P; Brookes, CP; Loxdale, HD; Powell, W.</t>
+  </si>
+  <si>
+    <t>Electrophoretic study of five aphid parasitoid species of the genus Aphidius (Hymenoptera : Braconidae), including evidence for reproductively isolated sympatric populations and a cryptic species</t>
+  </si>
+  <si>
+    <t>Gonatocerus morrilli - CA</t>
+  </si>
+  <si>
+    <t>Gonatocerus morrilli - TX</t>
+  </si>
+  <si>
+    <t>de Leon, JH; Jones, WA; Samou, M; Morgan, DJW.</t>
+  </si>
+  <si>
+    <t>Genetic and hybridization evidence confirms that a geographic population of Gonatocerus morrilli (Hymenoptera : Mymaridae) from California is a new species: Egg parasitoids of the glassy-winged sharpshooter Homalodisca coagulata (Homoptera : Cicadellidae)</t>
+  </si>
+  <si>
+    <t>COI distance estimated by authors = 5.4–6.5 %</t>
+  </si>
+  <si>
+    <t>Neodiprion pinetum</t>
+  </si>
+  <si>
+    <t>Neodiprion lecontei</t>
+  </si>
+  <si>
+    <t>Bendall, EE; Vertacnik, KL; Linnen, CR.</t>
+  </si>
+  <si>
+    <t>Oviposition traits generate extrinsic postzygotic isolation between two pine sawfly species</t>
+  </si>
+  <si>
+    <t>Encarsia inaron</t>
+  </si>
+  <si>
+    <t>Encarsia partenopea</t>
+  </si>
+  <si>
+    <t>Gebiola, M; White, JA; Cass, BN; Kozuch, A; Harris, LR; Kelly, SE; Karimi, J; Giorgini, M; Perlman, SJ; Hunter, MS.</t>
+  </si>
+  <si>
+    <t>Cryptic diversity, reproductive isolation and cytoplasmic incompatibility in a classic biological control success story</t>
+  </si>
+  <si>
+    <t>COI distance estimated by authors = 3.6 %</t>
+  </si>
+  <si>
+    <t>Pogonomyrmex rugosus</t>
+  </si>
+  <si>
+    <t>Pogonomyrmex hybrid linages</t>
+  </si>
+  <si>
+    <t>Schwander, T; Suni, SS; Cahan, SH; Keller, L.</t>
+  </si>
+  <si>
+    <t>Mechanisms of reproductive isolation between an ant species of hybrid origin and one of its parents</t>
+  </si>
+  <si>
+    <t>Hybrid linages represent two hybrid species formed by hybrid speciation of the sp1 with another sp</t>
+  </si>
+  <si>
+    <t>Myrmica rubra host</t>
+  </si>
+  <si>
+    <t>Myrmica rubra inquiline</t>
+  </si>
+  <si>
+    <t>Leppanen, J; Seppa, P; Vepsalainen, K; Savolainen, R.</t>
+  </si>
+  <si>
+    <t>Mating isolation between the ant Myrmica rubra and its microgynous social parasite</t>
+  </si>
+  <si>
+    <t>Polistes fuscatus</t>
+  </si>
+  <si>
+    <t>Polistes metricus</t>
+  </si>
+  <si>
+    <t>Miller, SE; Legan, AW; Flores, ZA; Ng, HY; Sheehan, MJ.</t>
+  </si>
+  <si>
+    <t>Strong, but incomplete, mate choice discrimination between two closely related species of paper wasp</t>
+  </si>
+  <si>
+    <t>Plutella xylostella</t>
+  </si>
+  <si>
+    <t>Plutella australiana</t>
+  </si>
+  <si>
+    <t>Perry, KD; Baker, GJ; Powis, KJ; Kent, JK; Ward, CM; Baxter, SW.</t>
+  </si>
+  <si>
+    <t>Cryptic Plutella species show deep divergence despite the capacity to hybridize</t>
+  </si>
+  <si>
+    <t>Apis  cerana</t>
+  </si>
+  <si>
+    <t>Apis mellifera</t>
+  </si>
+  <si>
+    <t>Remnant, EJ; Koetz, A; Tan, K; Hinson, E; Beekman, M; Oldroyd, BP.</t>
+  </si>
+  <si>
+    <t>Reproductive interference between honeybee species in artificial sympatry</t>
+  </si>
+  <si>
+    <t>Supercolonies of billions in an invasive ant: What is a society?</t>
+  </si>
+  <si>
+    <t>The Parasitic Wasp, Cotesia congregata (Say), Consists of Two Incipient Species Isolated by Asymmetric Reproductive Incompatibility and Hybrid Inability to Overcome Host Defenses</t>
+  </si>
+  <si>
+    <t>Ongoing ecological speciation in Cotesia sesamiae, a biological control agent of cereal stem borers</t>
+  </si>
+  <si>
+    <t>The Diachasmimorpha longicaudata complex: Reproductive isolation and geometric patterns of the wing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -380,22 +381,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -418,7 +404,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -426,90 +412,318 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.57"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,110 +731,102 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="22.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="167.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="163.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="50.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="60.57"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="167.85546875" customWidth="1"/>
+    <col min="12" max="12" width="163.140625" customWidth="1"/>
+    <col min="13" max="13" width="50.85546875" customWidth="1"/>
+    <col min="14" max="14" width="96" customWidth="1"/>
+    <col min="15" max="15" width="60.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -658,14 +864,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -683,27 +889,27 @@
       <c r="H2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2">
         <v>2006</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -721,27 +927,27 @@
       <c r="H3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3">
         <v>2019</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -759,20 +965,20 @@
       <c r="H4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4">
         <v>2016</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>45</v>
       </c>
@@ -800,7 +1006,7 @@
       <c r="I5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="5">
         <v>2017</v>
       </c>
       <c r="K5" s="5" t="s">
@@ -810,7 +1016,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>50</v>
       </c>
@@ -824,13 +1030,13 @@
         <v>29</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>31</v>
@@ -838,7 +1044,7 @@
       <c r="I6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="5">
         <v>2001</v>
       </c>
       <c r="K6" s="5" t="s">
@@ -857,14 +1063,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -882,24 +1088,24 @@
       <c r="H7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7">
         <v>2019</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -917,24 +1123,24 @@
       <c r="H8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8">
         <v>1991</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -952,24 +1158,24 @@
       <c r="H9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9">
         <v>2014</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -987,24 +1193,24 @@
       <c r="H10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10">
         <v>1998</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1022,24 +1228,24 @@
       <c r="H11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11">
         <v>2019</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1057,27 +1263,27 @@
       <c r="H12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12">
         <v>2006</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="L12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1095,24 +1301,24 @@
       <c r="H13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13">
         <v>2017</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1130,27 +1336,27 @@
       <c r="H14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14">
         <v>2016</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" t="s">
         <v>85</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="L14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1168,27 +1374,27 @@
       <c r="H15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15">
         <v>2008</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" t="s">
         <v>90</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="L15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1206,24 +1412,24 @@
       <c r="H16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" t="s">
         <v>94</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16">
         <v>2016</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1241,24 +1447,24 @@
       <c r="H17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" t="s">
         <v>98</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17">
         <v>2019</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1276,24 +1482,24 @@
       <c r="H18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18">
         <v>2018</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -1311,17 +1517,17 @@
       <c r="H19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" t="s">
         <v>106</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19">
         <v>2014</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F39" s="3" t="s">
         <v>29</v>
       </c>
@@ -1329,7 +1535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F40" s="3" t="s">
         <v>29</v>
       </c>
@@ -1337,7 +1543,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F41" s="3" t="s">
         <v>29</v>
       </c>
@@ -1346,80 +1552,57 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Windows/Busquedas/Barriers/Hymenoptera/Hymenoptera_Barriers.xlsx
+++ b/Windows/Busquedas/Barriers/Hymenoptera/Hymenoptera_Barriers.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="Barriers" sheetId="2" r:id="rId2"/>
-    <sheet name="Interesting" sheetId="3" r:id="rId3"/>
-    <sheet name="Strains2Species" sheetId="4" r:id="rId4"/>
+    <sheet name="Intfraspecific" sheetId="3" r:id="rId3"/>
+    <sheet name="ToCSV" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Barriers!$A$1:$H$439</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Barriers!$A$1:$H$435</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="108">
   <si>
     <t>Barrier</t>
   </si>
@@ -344,9 +344,6 @@
     <t>Cryptic Plutella species show deep divergence despite the capacity to hybridize</t>
   </si>
   <si>
-    <t>Apis  cerana</t>
-  </si>
-  <si>
     <t>Apis mellifera</t>
   </si>
   <si>
@@ -356,16 +353,7 @@
     <t>Reproductive interference between honeybee species in artificial sympatry</t>
   </si>
   <si>
-    <t>Supercolonies of billions in an invasive ant: What is a society?</t>
-  </si>
-  <si>
-    <t>The Parasitic Wasp, Cotesia congregata (Say), Consists of Two Incipient Species Isolated by Asymmetric Reproductive Incompatibility and Hybrid Inability to Overcome Host Defenses</t>
-  </si>
-  <si>
-    <t>Ongoing ecological speciation in Cotesia sesamiae, a biological control agent of cereal stem borers</t>
-  </si>
-  <si>
-    <t>The Diachasmimorpha longicaudata complex: Reproductive isolation and geometric patterns of the wing</t>
+    <t>Apis cerana</t>
   </si>
 </sst>
 </file>
@@ -389,18 +377,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -415,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -427,10 +409,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,10 +786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,16 +887,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
@@ -928,59 +911,59 @@
         <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J3">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4">
-        <v>2016</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2017</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>46</v>
@@ -1004,74 +987,71 @@
         <v>31</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J5" s="5">
-        <v>2017</v>
+        <v>2001</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="M5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="5">
-        <v>2001</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>55</v>
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6">
+        <v>2019</v>
+      </c>
+      <c r="K6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>29</v>
@@ -1080,7 +1060,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>28</v>
@@ -1089,97 +1069,97 @@
         <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J7">
-        <v>2019</v>
+        <v>1991</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J8">
-        <v>1991</v>
+        <v>2014</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J9">
-        <v>2014</v>
+        <v>1998</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>29</v>
@@ -1194,24 +1174,24 @@
         <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J10">
-        <v>1998</v>
+        <v>2019</v>
       </c>
       <c r="K10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
@@ -1223,30 +1203,30 @@
         <v>29</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="J11">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
@@ -1264,24 +1244,24 @@
         <v>31</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J12">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="K12" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1290,74 +1270,71 @@
         <v>29</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="J13">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="J14">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>29</v>
@@ -1375,179 +1352,36 @@
         <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="J15">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
-      </c>
-      <c r="L15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" t="s">
-        <v>94</v>
-      </c>
-      <c r="J16">
-        <v>2016</v>
-      </c>
-      <c r="K16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" t="s">
-        <v>98</v>
-      </c>
-      <c r="J17">
-        <v>2019</v>
-      </c>
-      <c r="K17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J18">
-        <v>2018</v>
-      </c>
-      <c r="K18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" t="s">
         <v>106</v>
       </c>
-      <c r="J19">
-        <v>2014</v>
-      </c>
-      <c r="K19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H41" s="3" t="s">
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1559,15 +1393,196 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>108</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2">
+        <v>2019</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3">
+        <v>2006</v>
+      </c>
+      <c r="K3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4">
+        <v>2008</v>
+      </c>
+      <c r="K4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5">
+        <v>2016</v>
+      </c>
+      <c r="K5" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1578,31 +1593,405 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>